--- a/Report/VTM_analyze.xlsx
+++ b/Report/VTM_analyze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LQ Duy\Documents\Project\VideoCoding\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B26F3D7-2259-47AE-B1D5-C797950786FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51740A16-AD32-4761-93AE-9E626DBF4C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{CCB48038-5F42-407B-8980-69F0D90CA1E6}"/>
   </bookViews>
@@ -9332,8 +9332,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
